--- a/output/inference_results/test_sheets/batch_003/test_sheet (31).xlsx
+++ b/output/inference_results/test_sheets/batch_003/test_sheet (31).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,25 +424,20 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>项</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>项</t>
+          <t>结果</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>结果</t>
+          <t>参考值</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
-        <is>
-          <t>参考值</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
         <is>
           <t>单位</t>
         </is>
@@ -450,18 +445,17 @@
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>八40</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>八40</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
         <is>
           <t>U/L</t>
         </is>
@@ -469,18 +463,17 @@
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>8-42</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
-        <is>
-          <t>8-42</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
         <is>
           <t>U/L</t>
         </is>
@@ -488,29 +481,27 @@
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>1.33</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>7-32</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
-        <is>
-          <t>7-32</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
         <is>
           <t>U/L</t>
         </is>
@@ -518,18 +509,17 @@
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>66.0</t>
+          <t>40-150</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
-        <is>
-          <t>40-150</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
         <is>
           <t>U/L</t>
         </is>
@@ -537,18 +527,17 @@
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>255.0</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>255.0</t>
+          <t>109-245</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
-        <is>
-          <t>↑109-245</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
         <is>
           <t>U/L</t>
         </is>
@@ -556,18 +545,17 @@
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>286.0</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>286.0</t>
+          <t>24-194</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
-        <is>
-          <t>↑24-194</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
         <is>
           <t>U/L</t>
         </is>
@@ -575,18 +563,17 @@
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>214.0</t>
+          <t>172-182</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
-        <is>
-          <t>172-182</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
         <is>
           <t>U/L</t>
         </is>
@@ -594,18 +581,17 @@
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>&lt;25.0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
-        <is>
-          <t>&lt;25.0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
         <is>
           <t>U/L</t>
         </is>
@@ -613,18 +599,17 @@
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>八96</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
-        <is>
-          <t>八96</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
         <is>
           <t>U/L</t>
         </is>
@@ -632,18 +617,17 @@
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>55.6</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>55.60</t>
+          <t>60-80</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
         <is>
           <t>g/L</t>
         </is>
@@ -651,18 +635,17 @@
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>37.00</t>
+          <t>35-54</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
-        <is>
-          <t>35-54</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
         <is>
           <t>g/L</t>
         </is>
@@ -670,18 +653,17 @@
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>18.6</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>18.6</t>
+          <t>120-35</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
-        <is>
-          <t>120-35</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
         <is>
           <t>g/L</t>
         </is>
@@ -689,33 +671,31 @@
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
           <t>1.50-2.50</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>20.7</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>20.7</t>
+          <t>3.0-20.0</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
-        <is>
-          <t>↑3.0-20.0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
         <is>
           <t>μmoll</t>
         </is>
@@ -723,18 +703,17 @@
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>八6.8</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
-        <is>
-          <t>八6.8</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
         <is>
           <t>Mmol/</t>
         </is>
@@ -742,18 +721,17 @@
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>15.9</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15.9</t>
+          <t>1.7-15.0</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
-        <is>
-          <t>↑1.7-15.0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
         <is>
           <t>umol/</t>
         </is>
@@ -761,37 +739,35 @@
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.56-1.70</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.56-1.70</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>mmo1/L</t>
+          <t>mmol/L</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>入5.20</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
-        <is>
-          <t>入5.20</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
         <is>
           <t>mmol/L</t>
         </is>
@@ -799,83 +775,75 @@
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>3.9-6.1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3.9-6.1</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>mmo1/L</t>
+          <t>mmol/L</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>0.90-1.70</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.90-1.70</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>mmo1/1</t>
+          <t>mmol/L</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>八3.61</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>八3.61</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>mo1/L</t>
+          <t>mol/L</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>23载脂蛋白一A(APO-A</t>
+          <t>载脂蛋白-B</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>23载脂蛋白一A(APO-A</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.01-1.60</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
-        <is>
-          <t>1.01-1.60</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
         <is>
           <t>g/L</t>
         </is>
@@ -884,25 +852,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>24载脂蛋白-B（APO-B）</t>
+          <t>载脂蛋白-B</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>24载脂蛋白-B（APO-B）</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.63-1.20</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
-        <is>
-          <t>0.63-1.20</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
         <is>
           <t>g/L</t>
         </is>
@@ -912,20 +875,15 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>25脂蛋白a（LPa</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>八300.00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
-        <is>
-          <t>八300.00</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
         <is>
           <t>mg/L</t>
         </is>
@@ -934,52 +892,42 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>26尿素（UREA）</t>
+          <t>尿素</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>26尿素（UREA）</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>1.4-7.1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.4-7.1</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>mmo1/L</t>
+          <t>mmol/L</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>27肌酐（CREA）</t>
+          <t>肌酐</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>27肌酐（CREA）</t>
+          <t>59.7</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>59.7</t>
+          <t>35-80</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
-        <is>
-          <t>35-80</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
         <is>
           <t>umole</t>
         </is>
@@ -988,25 +936,20 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>28尿酸（UA）</t>
+          <t>尿酸</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>28尿酸（UA）</t>
+          <t>189.6</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>189.6</t>
+          <t>155-357</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
-        <is>
-          <t>155-357</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
         <is>
           <t>umol/</t>
         </is>
@@ -1015,25 +958,20 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>29光抑素C（CysC）</t>
+          <t>光抑素C</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>29光抑素C（CysC）</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>八1.2</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
-        <is>
-          <t>八1.2</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
         <is>
           <t>mg/L</t>
         </is>
@@ -1042,162 +980,132 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30钾（K）</t>
+          <t>钾</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>30钾（K）</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.50-5.30</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3.50-5.30</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>mmo1/1</t>
+          <t>mmol/L</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>31钠（Na）</t>
+          <t>钠</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>31钠（Na）</t>
+          <t>141.0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>141.0</t>
+          <t>136-145</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>136-145</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>mmol/1</t>
+          <t>mmol/L</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>32氯（C1）</t>
+          <t>氯</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>32氯（C1）</t>
+          <t>104.0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>104.0</t>
+          <t>95-108</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>95-108</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>mmo1/l</t>
+          <t>mmol/L</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>33二氧化碳（C02）</t>
+          <t>总二氧化碳</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>33二氧化碳（C02）</t>
+          <t>22.6</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>22.6</t>
+          <t>20.0-29.0</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>20.0-29.0mmol/L</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>20.0-29.0mmol/L</t>
+          <t>mmol/L</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>34钙（Ca）</t>
+          <t>钙</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>34钙（Ca）</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.00-2.55</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2.00-2.55</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>mmo1/1</t>
+          <t>mmol/L</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>35磷（P）</t>
+          <t>磷</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>35磷（P）</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.90-1.34</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.90-1.34</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>mmol/1</t>
+          <t>mmol/L</t>
         </is>
       </c>
     </row>
@@ -1205,128 +1113,103 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>36免疫球蛋白G（IgG）</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>8.00-17.00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>8.00-17.00</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>g/1</t>
+          <t>g/L</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>37免疫球蛋白A（IgA）</t>
+          <t>球蛋白</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>37免疫球蛋白A（IgA）</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>0.72-4.29</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.72-4.29g/L</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>0.72-4.29g/L</t>
+          <t>g/L</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>38免疫球蛋白M（IgM）</t>
+          <t>球蛋白</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>38免疫球蛋白M（IgM）</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.29-3.44</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.29-3.44g/L</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>0.29-3.44g/L</t>
+          <t>g/L</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>39补体C3（C3）</t>
+          <t>补体C3</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>39补体C3（C3）</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>10.79-1.52</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>10.79-1.52</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>mg/dl</t>
+          <t>mg/dL</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>40补体C4（C4）</t>
+          <t>补体C4</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>40补体C4（C4）</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.16-0.38</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
-        <is>
-          <t>0.16-0.38</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
         <is>
           <t>ng/dl</t>
         </is>
@@ -1335,25 +1218,20 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>41睡液酸（SA）</t>
+          <t>睡液酸</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>41睡液酸（SA）</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>45.6-75.4</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
-        <is>
-          <t>45.6-75.4</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
         <is>
           <t>mg/dL</t>
         </is>
@@ -1362,52 +1240,42 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>42阴离子隙（AG）</t>
+          <t>阴离子隙</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>42阴离子隙（AG）</t>
+          <t>14.4</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>14.4</t>
+          <t>8.0-16.0</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>8.0-16.0mmol/L</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>8.0-16.0mmol/L</t>
+          <t>mmol/L</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>43同型半胱氨酸（HCY）</t>
+          <t>同型半胱氨酸</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>43同型半胱氨酸（HCY）</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
         <is>
           <t>让aol</t>
         </is>
